--- a/docs/PT2ov/PT2ov_13.11.2024_output.xlsx
+++ b/docs/PT2ov/PT2ov_13.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:N89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731607523.6029415</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731607524.9772625</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731607523.6029415.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731607524.9772625.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>134.86</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>134.88</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.01999999999998181</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731607530.7368536</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731607534.0579686</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731607530.7368536.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731607534.0579686.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>135.84</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>135.8</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.03999999999999204</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731607535.877103</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731607540.1846282</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731607535.877103.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731607540.1846282.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>135.91</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>135.33</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.5799999999999841</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.43</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731607540.1985908</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731607541.8272333</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731607540.1985908.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731607541.8272333.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>135.33</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>135.41</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.07999999999998408</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731607546.1227412</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731607547.4103246</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731607546.1227412.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731607547.4103246.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>136.15</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>136.42</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.2699999999999818</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -799,95 +845,107 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731607548.1543064</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731607548.1543064.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+          <t>./test_images/GAZP1731607548.1543064.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>136.25</v>
       </c>
-      <c r="J8" t="n">
-        <v>136.25</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>136.39</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.1399999999999864</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731607552.7480175</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731607558.0049806</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731607552.7480175.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731607558.0049806.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6982</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>7022</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-40</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.5700000000000001</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731607558.0189502</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731607560.1222887</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731607558.0189502.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731607560.1222887.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>7022</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>7018</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-4</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731607565.9985974</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731607567.5434332</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731607565.9985974.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731607567.5434332.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>7017</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>7012</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>5</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731607570.6261857</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731607570.9523132</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731607570.6261857.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731607570.9523132.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>7020.5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>7025.5</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>5</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731607571.279438</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731607571.373187</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731607571.279438.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731607571.373187.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>7017.5</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>7025.5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>8</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1103,51 +1185,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731607571.9416678</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731607573.6311464</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731607571.9416678.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731607573.6311464.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>7027.5</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>7037</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>9.5</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731607576.5633018</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731607578.5420082</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731607576.5633018.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731607578.5420082.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>485.55</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>487.55</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>2</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731607579.1723232</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731607580.0400279</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731607579.1723232.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731607580.0400279.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>487.35</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>488.65</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>1.299999999999955</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731607580.4798236</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731607581.1829424</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731607580.4798236.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731607581.1829424.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>488.45</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>489</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.5500000000000114</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731607582.393731</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731607584.518635</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731607582.393731.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731607584.518635.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>488.45</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>489.8</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>1.350000000000023</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -1363,51 +1475,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731607593.4856443</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731607595.9061677</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731607593.4856443.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731607595.9061677.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>490.05</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>488.75</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-1.300000000000011</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -1415,95 +1533,107 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731607602.0247984</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731607602.0247984.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+          <t>./test_images/ROSN1731607602.0247984.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>492.85</v>
       </c>
-      <c r="J20" t="n">
-        <v>492.85</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>493.35</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731607602.5035174</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731607607.3954031</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731607602.5035174.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731607607.3954031.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>924</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>927.4</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-3.399999999999977</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -1511,51 +1641,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731607608.2471535</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731607608.450608</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731607608.2471535.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731607608.450608.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>927.6</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>929.6</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>2</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -1563,51 +1699,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731607609.6823158</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731607613.3165889</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731607609.6823158.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731607613.3165889.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>930</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>927</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-3</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -1615,51 +1757,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731607624.836768</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731607626.3666723</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731607624.836768.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731607626.3666723.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>930.6</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>931.4</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1667,51 +1815,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731607627.0099275</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731607627.0637832</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731607627.0099275.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731607627.0637832.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>932</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>932</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1719,51 +1873,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731607627.3490205</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731607627.5586064</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731607627.3490205.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731607627.5586064.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>932.2</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>933</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1771,51 +1931,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731607629.0853593</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731607630.3240447</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731607629.0853593.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731607630.3240447.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>37.685</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>37.825</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -1823,51 +1989,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731607631.517823</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731607632.9081311</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731607631.517823.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731607632.9081311.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>37.755</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>37.925</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.1699999999999946</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -1875,51 +2047,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731607633.7678342</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731607634.61753</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731607633.7678342.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731607634.61753.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>37.89</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>38.105</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.2149999999999963</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -1927,51 +2105,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731607636.3469033</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731607639.2830482</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731607636.3469033.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731607639.2830482.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>38.32</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>38.335</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.01500000000000057</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1979,51 +2163,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731607645.2181697</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731607647.0602427</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731607645.2181697.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731607647.0602427.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>38.12</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>38.105</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.01500000000000057</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2031,51 +2221,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731607652.3540785</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731607652.5645435</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731607652.3540785.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731607652.5645435.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>38.385</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>38.4</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.01500000000000057</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2083,51 +2279,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731607652.657295</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731607652.7111511</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731607652.657295.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731607652.7111511.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>38.4</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>38.4</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2135,51 +2337,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731607653.4691231</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731607654.6359735</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731607653.4691231.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731607654.6359735.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>38.44</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>38.5</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2187,95 +2395,107 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731607654.7289834</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731607654.7289834.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+          <t>./test_images/MAGN1731607654.7289834.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>38.49</v>
       </c>
-      <c r="J35" t="n">
-        <v>38.49</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>38.405</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.08500000000000085</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731607655.5467954</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731607657.0348144</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731607655.5467954.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731607657.0348144.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1232.2</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1234.4</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>2.200000000000045</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -2283,51 +2503,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731607657.316062</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731607658.470972</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731607657.316062.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731607658.470972.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1232.2</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1230.6</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-1.600000000000136</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -2335,51 +2561,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731607659.8582604</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731607661.035112</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731607659.8582604.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731607661.035112.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1232.6</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>1235.2</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>2.600000000000136</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -2387,51 +2619,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731607662.5131578</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731607665.9140592</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731607662.5131578.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731607665.9140592.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1236.6</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1235.4</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-1.199999999999818</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -2439,51 +2677,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731607667.8299336</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731607668.871148</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731607667.8299336.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731607668.871148.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1236.4</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1236.8</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.3999999999998636</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2491,51 +2735,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731607669.5722492</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731607671.5569382</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731607669.5722492.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731607671.5569382.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1229.4</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1219.6</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-9.800000000000182</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.8</v>
       </c>
     </row>
@@ -2543,51 +2793,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731607671.5718987</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731607673.3142369</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731607671.5718987.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731607673.3142369.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1219.6</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>1217.8</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>1.799999999999955</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -2595,51 +2851,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731607674.3105729</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731607679.3491192</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731607674.3105729.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731607679.3491192.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1217.4</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1230</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-12.59999999999991</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-1.03</v>
       </c>
     </row>
@@ -2647,51 +2909,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731607679.3662372</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731607680.483249</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731607679.3662372.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731607680.483249.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1230</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>1234.6</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>4.599999999999909</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -2699,51 +2967,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731607682.0410824</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731607684.2362082</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731607682.0410824.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731607684.2362082.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>80.88</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>81</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -2751,51 +3025,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731607684.8725345</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731607685.9386826</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731607684.8725345.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731607685.9386826.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>81.01000000000001</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>80.95</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -2803,51 +3083,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731607688.2085805</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731607691.7201858</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731607688.2085805.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731607691.7201858.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>81.19</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>81.05</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.1400000000000006</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -2855,51 +3141,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731607698.2626836</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731607699.771645</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731607698.2626836.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731607699.771645.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>80.29000000000001</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>80.20999999999999</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.08000000000001251</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2907,51 +3199,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731607700.7191384</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731607704.342417</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731607700.7191384.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731607704.342417.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>80.16</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>80.31</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.1500000000000057</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -2959,51 +3257,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731607705.8135092</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731607706.5505092</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731607705.8135092.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731607706.5505092.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>80.58</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>80.73</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.1500000000000057</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -3011,51 +3315,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731607707.40622</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731607707.458081</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731607707.40622.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731607707.458081.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>14.146</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>14.142</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.004000000000001336</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -3063,51 +3373,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731607708.0325458</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731607710.2536023</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731607708.0325458.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731607710.2536023.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>14.151</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>14.184</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.03299999999999947</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -3115,51 +3431,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731607712.000955</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731607712.0917125</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731607712.000955.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731607712.0917125.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>14.215</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>14.226</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.01100000000000101</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -3167,51 +3489,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731607712.1455686</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731607712.23832</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731607712.1455686.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731607712.23832.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>14.212</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>14.208</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.003999999999999559</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -3219,51 +3547,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731607712.2911794</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731607713.0990174</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731607712.2911794.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731607713.0990174.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>14.204</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>14.235</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.03099999999999881</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -3271,51 +3605,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731607714.4583867</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731607717.7336197</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731607714.4583867.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731607717.7336197.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>14.249</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>14.216</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.03300000000000125</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -3323,51 +3663,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731607726.503157</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731607726.5580099</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731607726.503157.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731607726.5580099.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>14.171</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>14.167</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.003999999999999559</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3375,51 +3721,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731607726.6128635</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731607729.9140034</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731607726.6128635.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731607729.9140034.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>14.166</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>14.238</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.07199999999999918</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>-0.51</v>
       </c>
     </row>
@@ -3427,51 +3779,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731607732.0662694</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731607732.2767062</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731607732.0662694.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731607732.2767062.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>14.268</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>14.353</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.08499999999999908</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -3479,95 +3837,107 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731607733.317921</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731607733.317921.png</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+          <t>./test_images/AFKS1731607733.317921.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>14.355</v>
       </c>
-      <c r="J60" t="n">
-        <v>14.355</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>14.369</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.01399999999999935</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731607733.6849127</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731607736.1862473</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607733.6849127.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607736.1862473.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>104.4</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>104.09</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.3100000000000023</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3575,51 +3945,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731607736.9192894</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731607740.6662614</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607736.9192894.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607740.6662614.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>104.22</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>105.17</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.9500000000000028</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>-0.91</v>
       </c>
     </row>
@@ -3627,51 +4003,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731607740.6822193</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731607740.8896728</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607740.6822193.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607740.8896728.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>105.17</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>105.22</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -3679,51 +4061,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731607741.301564</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731607742.0455744</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607741.301564.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607742.0455744.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>105.34</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>105.9</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -3731,51 +4119,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731607742.2550151</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731607742.3088677</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607742.2550151.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607742.3088677.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>105.5</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>105.52</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.01999999999999602</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -3783,51 +4177,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731607742.4395187</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731607744.8845134</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607742.4395187.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607744.8845134.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>105.46</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>105.5</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.04000000000000625</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -3835,51 +4235,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731607746.6288466</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731607753.241155</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607746.6288466.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607753.241155.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>105.69</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>104.94</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.75</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>-0.7100000000000001</v>
       </c>
     </row>
@@ -3887,51 +4293,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731607753.2579288</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731607758.243621</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607753.2579288.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607758.243621.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>104.94</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>105.65</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.710000000000008</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-0.6799999999999999</v>
       </c>
     </row>
@@ -3939,51 +4351,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731607758.259576</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731607759.3137288</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607758.259576.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607759.3137288.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>105.65</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>106.03</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -3991,51 +4409,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731607760.5115244</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731607761.299415</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731607760.5115244.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731607761.299415.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>347.75</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>347.68</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-0.06999999999999318</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -4043,51 +4467,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731607767.835929</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731607769.2870455</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731607767.835929.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731607769.2870455.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>351.51</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>351.88</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.3700000000000045</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -4095,51 +4525,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731607775.2221668</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731607777.555923</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731607775.2221668.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731607777.555923.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>350.13</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>349.03</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>1.100000000000023</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -4147,51 +4583,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731607778.1583116</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731607779.8049061</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731607778.1583116.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731607779.8049061.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>349.34</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>350.22</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-0.8800000000000523</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -4199,51 +4641,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731607784.8754017</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731607787.394691</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607784.8754017.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607787.394691.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>2775.9</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>2778.95</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>3.049999999999727</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -4251,51 +4699,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731607788.7670193</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731607789.4950693</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607788.7670193.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607789.4950693.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>2780</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>2782</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>2</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -4303,51 +4757,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731607791.2445526</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731607794.635482</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607791.2445526.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607794.635482.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>2789.05</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>2787.75</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-1.300000000000182</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -4355,51 +4815,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731607799.9592376</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731607802.296424</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607799.9592376.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607802.296424.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>2779.2</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>2777.85</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>1.349999999999909</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -4407,51 +4873,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731607803.378499</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731607806.451278</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607803.378499.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607806.451278.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>2777.1</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>2787.05</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>-9.950000000000273</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -4459,51 +4931,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731607806.4672356</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731607806.5604718</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607806.4672356.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607806.5604718.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>2787.05</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>2786.45</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>-0.6000000000003638</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -4511,51 +4989,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731607806.6532514</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731607807.2875547</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607806.6532514.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607807.2875547.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>2786.5</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>2789.85</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>3.349999999999909</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -4563,51 +5047,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731607807.3812091</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731607807.5108614</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607807.3812091.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607807.5108614.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>2788.75</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>2790.45</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>1.699999999999818</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -4615,51 +5105,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731607808.1790764</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731607809.1953611</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607808.1790764.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607809.1953611.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>2790.5</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>2794.25</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>3.75</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -4667,95 +5163,107 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731607809.821679</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731607809.821679.png</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+          <t>./test_images/MXI1731607809.821679.png</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>2792.4</v>
       </c>
-      <c r="J83" t="n">
-        <v>2792.4</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>2795.2</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2.799999999999727</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731607816.9276927</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731607823.9917655</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607816.9276927.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607823.9917655.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>595.9</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>591</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>-4.899999999999977</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>-0.8200000000000001</v>
       </c>
     </row>
@@ -4763,51 +5271,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731607824.0077531</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731607824.1812868</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607824.0077531.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607824.1812868.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>591</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>591.2</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>-0.2000000000000455</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -4815,51 +5329,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731607824.23614</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731607824.4485712</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607824.23614.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607824.4485712.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>591.6</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>590.2</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>1.399999999999977</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -4867,51 +5387,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731607825.7919772</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731607827.9920912</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607825.7919772.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607827.9920912.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>589.6</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>590.1</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>-0.5</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -4919,51 +5445,57 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731607829.74939</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731607831.4079523</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607829.74939.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607831.4079523.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>589</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>589.7</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>-0.7000000000000455</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -4971,51 +5503,57 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731607834.054871</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731607835.3912954</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607834.054871.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607835.3912954.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>592.5</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>594</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>1.5</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -5077,19 +5615,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0509999999999966</v>
+        <v>0.06499999999999595</v>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00509999999999966</v>
+        <v>0.006499999999999595</v>
       </c>
       <c r="E2" t="n">
-        <v>0.36</v>
+        <v>0.46</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -5099,19 +5637,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.349999999998545</v>
+        <v>6.149999999998272</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3349999999998545</v>
+        <v>0.6149999999998272</v>
       </c>
       <c r="E3" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -5143,19 +5681,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6299999999999955</v>
+        <v>0.5449999999999946</v>
       </c>
       <c r="C5" t="n">
         <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06999999999999949</v>
+        <v>0.06055555555555495</v>
       </c>
       <c r="E5" t="n">
-        <v>1.67</v>
+        <v>1.45</v>
       </c>
       <c r="F5" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="6">
@@ -5187,19 +5725,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4499999999999602</v>
+        <v>-0.3099999999999739</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.07499999999999336</v>
+        <v>-0.05166666666666231</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.33</v>
+        <v>-0.23</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.05</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="8">
@@ -5253,19 +5791,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.899999999999977</v>
+        <v>4.399999999999977</v>
       </c>
       <c r="C10" t="n">
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6499999999999962</v>
+        <v>0.7333333333333295</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F10" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="11">
